--- a/Code/Results/Cases/Case_5_220/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_220/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.358593993130455</v>
+        <v>2.826683192429698</v>
       </c>
       <c r="C2">
-        <v>0.8075362885263928</v>
+        <v>0.364818345506535</v>
       </c>
       <c r="D2">
-        <v>0.01052148817539944</v>
+        <v>0.009022407014562361</v>
       </c>
       <c r="E2">
-        <v>0.01677222339199896</v>
+        <v>0.05043111356051849</v>
       </c>
       <c r="F2">
-        <v>3.074753222238456</v>
+        <v>4.157605467521165</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.711890297145246</v>
+        <v>2.446716918797108</v>
       </c>
       <c r="J2">
-        <v>0.05364430050923552</v>
+        <v>0.1247199570505728</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.333199314090038</v>
+        <v>0.4654450911102685</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.932811702337119</v>
+        <v>2.736422786721562</v>
       </c>
       <c r="C3">
-        <v>0.6963217724253354</v>
+        <v>0.3374530303535721</v>
       </c>
       <c r="D3">
-        <v>0.008867838240309567</v>
+        <v>0.008450282533921438</v>
       </c>
       <c r="E3">
-        <v>0.01673232372251382</v>
+        <v>0.05050730774579704</v>
       </c>
       <c r="F3">
-        <v>2.866519773253842</v>
+        <v>4.128671466142848</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.622687242674886</v>
+        <v>2.436935429613143</v>
       </c>
       <c r="J3">
-        <v>0.05440313650745665</v>
+        <v>0.1252668101824508</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2997838634807977</v>
+        <v>0.4601784076898952</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.676173786767379</v>
+        <v>2.682727031003708</v>
       </c>
       <c r="C4">
-        <v>0.6293017328968631</v>
+        <v>0.3208750531878479</v>
       </c>
       <c r="D4">
-        <v>0.007905948093476667</v>
+        <v>0.008096173153653297</v>
       </c>
       <c r="E4">
-        <v>0.01671478782123703</v>
+        <v>0.05055825357178495</v>
       </c>
       <c r="F4">
-        <v>2.744916012830757</v>
+        <v>4.112946417056065</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.571368899527243</v>
+        <v>2.43204908349783</v>
       </c>
       <c r="J4">
-        <v>0.05491338734256068</v>
+        <v>0.1256277414358475</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2798014407830607</v>
+        <v>0.4571847648224008</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.572648860074821</v>
+        <v>2.661278921277699</v>
       </c>
       <c r="C5">
-        <v>0.6022635618766401</v>
+        <v>0.3141752933429416</v>
       </c>
       <c r="D5">
-        <v>0.007525465807166398</v>
+        <v>0.007951108720849476</v>
       </c>
       <c r="E5">
-        <v>0.01670927212049217</v>
+        <v>0.05058006263721271</v>
       </c>
       <c r="F5">
-        <v>2.696792703408917</v>
+        <v>4.107049310231005</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.551250826310749</v>
+        <v>2.430338114348771</v>
       </c>
       <c r="J5">
-        <v>0.05513212579992377</v>
+        <v>0.1257811514937242</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2717796954244136</v>
+        <v>0.4560252048454174</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.555518386707604</v>
+        <v>2.657743644695643</v>
       </c>
       <c r="C6">
-        <v>0.5977891378925619</v>
+        <v>0.3130661641408778</v>
       </c>
       <c r="D6">
-        <v>0.007462928035618432</v>
+        <v>0.007926973337678334</v>
       </c>
       <c r="E6">
-        <v>0.01670845146118644</v>
+        <v>0.05058374737421756</v>
       </c>
       <c r="F6">
-        <v>2.688884413845287</v>
+        <v>4.106100899938511</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.54795619209645</v>
+        <v>2.430070899374982</v>
       </c>
       <c r="J6">
-        <v>0.05516909049943663</v>
+        <v>0.1258070073108257</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2704546498221987</v>
+        <v>0.4558363071262761</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.674773519608607</v>
+        <v>2.682436020063619</v>
       </c>
       <c r="C7">
-        <v>0.6289360380548032</v>
+        <v>0.3207844722416269</v>
       </c>
       <c r="D7">
-        <v>0.007900772663614219</v>
+        <v>0.008094219917428092</v>
       </c>
       <c r="E7">
-        <v>0.0167147069821636</v>
+        <v>0.05055854344986926</v>
       </c>
       <c r="F7">
-        <v>2.74426138762982</v>
+        <v>4.11286482053535</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.571094455699921</v>
+        <v>2.432024875711065</v>
       </c>
       <c r="J7">
-        <v>0.0549162939953991</v>
+        <v>0.1256297847564962</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2796927823882811</v>
+        <v>0.4571688821454956</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.210695435568368</v>
+        <v>2.795203256877016</v>
       </c>
       <c r="C8">
-        <v>0.7688980769546276</v>
+        <v>0.3553358682492274</v>
       </c>
       <c r="D8">
-        <v>0.0099389799679237</v>
+        <v>0.008825692755099368</v>
       </c>
       <c r="E8">
-        <v>0.01675694356589497</v>
+        <v>0.05045652236702669</v>
       </c>
       <c r="F8">
-        <v>3.001567748534995</v>
+        <v>4.147204202874363</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.680370074506726</v>
+        <v>2.443111137013148</v>
       </c>
       <c r="J8">
-        <v>0.05389653582695431</v>
+        <v>0.1249032902056229</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3215583172113554</v>
+        <v>0.463579292991426</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.30720111299371</v>
+        <v>3.030053990057752</v>
       </c>
       <c r="C9">
-        <v>1.055709027723083</v>
+        <v>0.4249002359604219</v>
       </c>
       <c r="D9">
-        <v>0.0144594538413827</v>
+        <v>0.01024010721108581</v>
       </c>
       <c r="E9">
-        <v>0.01690135002401993</v>
+        <v>0.05028941902577372</v>
       </c>
       <c r="F9">
-        <v>3.562852416100952</v>
+        <v>4.23083882366646</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.925757052344451</v>
+        <v>2.473794460819718</v>
       </c>
       <c r="J9">
-        <v>0.05226527081620524</v>
+        <v>0.1236782477280762</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.408569011102017</v>
+        <v>0.4780571534617906</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.152527843426071</v>
+        <v>3.211029415870655</v>
       </c>
       <c r="C10">
-        <v>1.277612592055391</v>
+        <v>0.4771574687175644</v>
       </c>
       <c r="D10">
-        <v>0.01825954801314467</v>
+        <v>0.01127045713545627</v>
       </c>
       <c r="E10">
-        <v>0.01705549766279157</v>
+        <v>0.0501866576612664</v>
       </c>
       <c r="F10">
-        <v>4.021000772758214</v>
+        <v>4.302375552408307</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.130838862162676</v>
+        <v>2.501878032762718</v>
       </c>
       <c r="J10">
-        <v>0.0513176096012824</v>
+        <v>0.1228998502986514</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4765505226304469</v>
+        <v>0.4898613003190206</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.548853332083809</v>
+        <v>3.295208059933657</v>
       </c>
       <c r="C11">
-        <v>1.381955881347324</v>
+        <v>0.5011903157224538</v>
       </c>
       <c r="D11">
-        <v>0.02013528607084325</v>
+        <v>0.01173800890620313</v>
       </c>
       <c r="E11">
-        <v>0.01713899894908727</v>
+        <v>0.05014423755449759</v>
       </c>
       <c r="F11">
-        <v>4.242298090324965</v>
+        <v>4.337145307364437</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.231048996328568</v>
+        <v>2.515876609817653</v>
       </c>
       <c r="J11">
-        <v>0.0509477624349568</v>
+        <v>0.1225721423331834</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5086353882477539</v>
+        <v>0.4954859969538035</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.700932528457486</v>
+        <v>3.327351673147632</v>
       </c>
       <c r="C12">
-        <v>1.422051514889972</v>
+        <v>0.5103291676619506</v>
       </c>
       <c r="D12">
-        <v>0.02087104199229728</v>
+        <v>0.01191495070795412</v>
       </c>
       <c r="E12">
-        <v>0.01717284702145377</v>
+        <v>0.05012879513059898</v>
       </c>
       <c r="F12">
-        <v>4.328237588945854</v>
+        <v>4.350634647706045</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.270140450360898</v>
+        <v>2.52135491836404</v>
       </c>
       <c r="J12">
-        <v>0.05081718421553916</v>
+        <v>0.1224518426537085</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5209789837317658</v>
+        <v>0.4976526515261099</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.668085284424876</v>
+        <v>3.320417085226893</v>
       </c>
       <c r="C13">
-        <v>1.413388610306015</v>
+        <v>0.5083592460607633</v>
       </c>
       <c r="D13">
-        <v>0.02071137530693079</v>
+        <v>0.01187684710344428</v>
       </c>
       <c r="E13">
-        <v>0.01716545267142483</v>
+        <v>0.05013209332226654</v>
       </c>
       <c r="F13">
-        <v>4.309628829684414</v>
+        <v>4.34771508063082</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.261667908035932</v>
+        <v>2.520167155542396</v>
       </c>
       <c r="J13">
-        <v>0.05084487352404921</v>
+        <v>0.1224775824788153</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5183114798730628</v>
+        <v>0.497184390497253</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.561323000050947</v>
+        <v>3.297847179447785</v>
       </c>
       <c r="C14">
-        <v>1.38524229479998</v>
+        <v>0.5019414066056243</v>
       </c>
       <c r="D14">
-        <v>0.02019527975444646</v>
+        <v>0.01175256788974721</v>
       </c>
       <c r="E14">
-        <v>0.01714173704851113</v>
+        <v>0.05014295465367463</v>
       </c>
       <c r="F14">
-        <v>4.249323723908418</v>
+        <v>4.338248599914493</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.234241211017036</v>
+        <v>2.51632375079862</v>
       </c>
       <c r="J14">
-        <v>0.0509368256342082</v>
+        <v>0.1225621691152696</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5096468514398396</v>
+        <v>0.4956635130472762</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.496198215025345</v>
+        <v>3.284057251091383</v>
       </c>
       <c r="C15">
-        <v>1.368080847282158</v>
+        <v>0.4980152799806774</v>
       </c>
       <c r="D15">
-        <v>0.01988261135873515</v>
+        <v>0.01167643066466439</v>
       </c>
       <c r="E15">
-        <v>0.01712751070501106</v>
+        <v>0.05014968839634631</v>
       </c>
       <c r="F15">
-        <v>4.212672886740108</v>
+        <v>4.332492218494906</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.217595363596971</v>
+        <v>2.513992694172828</v>
       </c>
       <c r="J15">
-        <v>0.05099440428247526</v>
+        <v>0.1226144752979721</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5043656169770543</v>
+        <v>0.494736713079007</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.126889205459292</v>
+        <v>3.205565466644998</v>
       </c>
       <c r="C16">
-        <v>1.270869648434143</v>
+        <v>0.4755921670246153</v>
       </c>
       <c r="D16">
-        <v>0.01814027568211074</v>
+        <v>0.01123988304239987</v>
       </c>
       <c r="E16">
-        <v>0.01705033458551675</v>
+        <v>0.05018951688893714</v>
       </c>
       <c r="F16">
-        <v>4.006821265697198</v>
+        <v>4.300148299900457</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.124441368526448</v>
+        <v>2.500987931072174</v>
       </c>
       <c r="J16">
-        <v>0.05134306742244021</v>
+        <v>0.1229217979255939</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4744792571840435</v>
+        <v>0.4894988467752341</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.903551264534144</v>
+        <v>3.157888101739218</v>
       </c>
       <c r="C17">
-        <v>1.212166977104289</v>
+        <v>0.4619035507003559</v>
       </c>
       <c r="D17">
-        <v>0.01711192440411935</v>
+        <v>0.01097181851917739</v>
       </c>
       <c r="E17">
-        <v>0.01700661519634217</v>
+        <v>0.05021505777606672</v>
       </c>
       <c r="F17">
-        <v>3.884028793598162</v>
+        <v>4.280878597272249</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.069165768956751</v>
+        <v>2.493324255758495</v>
       </c>
       <c r="J17">
-        <v>0.05157309470502902</v>
+        <v>0.1231170902945955</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4564599909192282</v>
+        <v>0.4863509098898788</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.776181504176009</v>
+        <v>3.13063961897916</v>
       </c>
       <c r="C18">
-        <v>1.17871619613129</v>
+        <v>0.4540547265776809</v>
       </c>
       <c r="D18">
-        <v>0.01653398991479094</v>
+        <v>0.01081752232342126</v>
       </c>
       <c r="E18">
-        <v>0.01698270699894244</v>
+        <v>0.05023015550990084</v>
       </c>
       <c r="F18">
-        <v>3.814595061331858</v>
+        <v>4.270004670293503</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.038013693832141</v>
+        <v>2.489031359859169</v>
       </c>
       <c r="J18">
-        <v>0.05171112035074721</v>
+        <v>0.1232319010554921</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4462031189098212</v>
+        <v>0.4845642921305569</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.733234621504891</v>
+        <v>3.121443663654816</v>
       </c>
       <c r="C19">
-        <v>1.167441517463715</v>
+        <v>0.4514014393768662</v>
       </c>
       <c r="D19">
-        <v>0.01634051766117395</v>
+        <v>0.01076525922414362</v>
       </c>
       <c r="E19">
-        <v>0.01697481636429149</v>
+        <v>0.05023533732753666</v>
       </c>
       <c r="F19">
-        <v>3.791282867287777</v>
+        <v>4.266358850947427</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.027572020052361</v>
+        <v>2.487597574498295</v>
       </c>
       <c r="J19">
-        <v>0.05175881702489527</v>
+        <v>0.1232712005487731</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4427479924712827</v>
+        <v>0.4839634934601236</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.92721126318321</v>
+        <v>3.162945397016983</v>
       </c>
       <c r="C20">
-        <v>1.218382896993205</v>
+        <v>0.4633581864458165</v>
       </c>
       <c r="D20">
-        <v>0.01721996320965147</v>
+        <v>0.01100036568516316</v>
       </c>
       <c r="E20">
-        <v>0.01701113904431051</v>
+        <v>0.05021229675947581</v>
       </c>
       <c r="F20">
-        <v>3.896974821301171</v>
+        <v>4.282908189936137</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.074982597529981</v>
+        <v>2.494128149624203</v>
       </c>
       <c r="J20">
-        <v>0.0515480113646305</v>
+        <v>0.1230960440187729</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4583668807705834</v>
+        <v>0.4866835297256671</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.592624752397796</v>
+        <v>3.304469256257562</v>
       </c>
       <c r="C21">
-        <v>1.393492900569129</v>
+        <v>0.503825441525521</v>
       </c>
       <c r="D21">
-        <v>0.02034614077464525</v>
+        <v>0.01178907423478748</v>
       </c>
       <c r="E21">
-        <v>0.01714863972153424</v>
+        <v>0.05013974756726314</v>
       </c>
       <c r="F21">
-        <v>4.266976249748325</v>
+        <v>4.341020354293022</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.242264747392952</v>
+        <v>2.5174478270158</v>
       </c>
       <c r="J21">
-        <v>0.05090955413434095</v>
+        <v>0.1225372209289688</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.512186369624672</v>
+        <v>0.4961092350969807</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.039340562770292</v>
+        <v>3.39851984345006</v>
       </c>
       <c r="C22">
-        <v>1.511390906177382</v>
+        <v>0.5304957142211038</v>
       </c>
       <c r="D22">
-        <v>0.02254019674885654</v>
+        <v>0.01230392696546545</v>
       </c>
       <c r="E22">
-        <v>0.0172516764364421</v>
+        <v>0.05009595260102973</v>
       </c>
       <c r="F22">
-        <v>4.521426429444176</v>
+        <v>4.380882655891128</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.35834778508098</v>
+        <v>2.53372300812228</v>
       </c>
       <c r="J22">
-        <v>0.05054789390303505</v>
+        <v>0.1221941257473809</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5485053901207237</v>
+        <v>0.502483442498729</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.799724432286041</v>
+        <v>3.348180611550276</v>
       </c>
       <c r="C23">
-        <v>1.44811541697959</v>
+        <v>0.5162407074033126</v>
       </c>
       <c r="D23">
-        <v>0.02135375933730188</v>
+        <v>0.01202917764272726</v>
       </c>
       <c r="E23">
-        <v>0.01719536214922535</v>
+        <v>0.05011899586906865</v>
       </c>
       <c r="F23">
-        <v>4.384359557425341</v>
+        <v>4.359434298955449</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.295718717327276</v>
+        <v>2.524941503606939</v>
       </c>
       <c r="J23">
-        <v>0.05073558440023795</v>
+        <v>0.1223752168637624</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5290064989083163</v>
+        <v>0.4990618139454597</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.916511391415384</v>
+        <v>3.160658489684067</v>
       </c>
       <c r="C24">
-        <v>1.215571757829593</v>
+        <v>0.4627004804382864</v>
       </c>
       <c r="D24">
-        <v>0.01717107782214811</v>
+        <v>0.01098746008372586</v>
       </c>
       <c r="E24">
-        <v>0.01700909001397966</v>
+        <v>0.05021354372565962</v>
       </c>
       <c r="F24">
-        <v>3.891118326093903</v>
+        <v>4.281989974366581</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.072350868603849</v>
+        <v>2.493764357182172</v>
       </c>
       <c r="J24">
-        <v>0.05155933358889797</v>
+        <v>0.1231055511456489</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4575044581410737</v>
+        <v>0.4865330801217311</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.00454604201002</v>
+        <v>2.965045411251083</v>
       </c>
       <c r="C25">
-        <v>0.9764479962866233</v>
+        <v>0.4058829077467578</v>
       </c>
       <c r="D25">
-        <v>0.01316535947218966</v>
+        <v>0.009859264737006157</v>
       </c>
       <c r="E25">
-        <v>0.01685471198588151</v>
+        <v>0.0503311052509659</v>
       </c>
       <c r="F25">
-        <v>3.403865783126349</v>
+        <v>4.206452866420989</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.855484700428221</v>
+        <v>2.464527273448098</v>
       </c>
       <c r="J25">
-        <v>0.05266460486910063</v>
+        <v>0.1239882895614688</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.384402871870364</v>
+        <v>0.4739358810965228</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_220/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_220/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.826683192429698</v>
+        <v>3.358593993130512</v>
       </c>
       <c r="C2">
-        <v>0.364818345506535</v>
+        <v>0.8075362885266202</v>
       </c>
       <c r="D2">
-        <v>0.009022407014562361</v>
+        <v>0.01052148817536747</v>
       </c>
       <c r="E2">
-        <v>0.05043111356051849</v>
+        <v>0.01677222339198736</v>
       </c>
       <c r="F2">
-        <v>4.157605467521165</v>
+        <v>3.074753222238456</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.446716918797108</v>
+        <v>1.711890297145231</v>
       </c>
       <c r="J2">
-        <v>0.1247199570505728</v>
+        <v>0.05364430050935276</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4654450911102685</v>
+        <v>0.333199314090038</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.736422786721562</v>
+        <v>2.932811702337005</v>
       </c>
       <c r="C3">
-        <v>0.3374530303535721</v>
+        <v>0.6963217724251081</v>
       </c>
       <c r="D3">
-        <v>0.008450282533921438</v>
+        <v>0.008867838240298909</v>
       </c>
       <c r="E3">
-        <v>0.05050730774579704</v>
+        <v>0.01673232372250849</v>
       </c>
       <c r="F3">
-        <v>4.128671466142848</v>
+        <v>2.866519773253799</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.436935429613143</v>
+        <v>1.622687242674871</v>
       </c>
       <c r="J3">
-        <v>0.1252668101824508</v>
+        <v>0.05440313650749218</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4601784076898952</v>
+        <v>0.2997838634807124</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.682727031003708</v>
+        <v>2.676173786767436</v>
       </c>
       <c r="C4">
-        <v>0.3208750531878479</v>
+        <v>0.6293017328971757</v>
       </c>
       <c r="D4">
-        <v>0.008096173153653297</v>
+        <v>0.007905948093359427</v>
       </c>
       <c r="E4">
-        <v>0.05055825357178495</v>
+        <v>0.01671478782125735</v>
       </c>
       <c r="F4">
-        <v>4.112946417056065</v>
+        <v>2.744916012830799</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.43204908349783</v>
+        <v>1.571368899527258</v>
       </c>
       <c r="J4">
-        <v>0.1256277414358475</v>
+        <v>0.05491338734259976</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4571847648224008</v>
+        <v>0.2798014407829612</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.661278921277699</v>
+        <v>2.572648860074707</v>
       </c>
       <c r="C5">
-        <v>0.3141752933429416</v>
+        <v>0.6022635618759864</v>
       </c>
       <c r="D5">
-        <v>0.007951108720849476</v>
+        <v>0.007525465807397325</v>
       </c>
       <c r="E5">
-        <v>0.05058006263721271</v>
+        <v>0.01670927212052542</v>
       </c>
       <c r="F5">
-        <v>4.107049310231005</v>
+        <v>2.696792703408946</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.430338114348771</v>
+        <v>1.551250826310749</v>
       </c>
       <c r="J5">
-        <v>0.1257811514937242</v>
+        <v>0.05513212579995574</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4560252048454174</v>
+        <v>0.271779695424371</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.657743644695643</v>
+        <v>2.555518386707661</v>
       </c>
       <c r="C6">
-        <v>0.3130661641408778</v>
+        <v>0.5977891378925335</v>
       </c>
       <c r="D6">
-        <v>0.007926973337678334</v>
+        <v>0.007462928035618432</v>
       </c>
       <c r="E6">
-        <v>0.05058374737421756</v>
+        <v>0.01670845146119415</v>
       </c>
       <c r="F6">
-        <v>4.106100899938511</v>
+        <v>2.688884413845287</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.430070899374982</v>
+        <v>1.547956192096464</v>
       </c>
       <c r="J6">
-        <v>0.1258070073108257</v>
+        <v>0.05516909049939578</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4558363071262761</v>
+        <v>0.2704546498221134</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.682436020063619</v>
+        <v>2.674773519608721</v>
       </c>
       <c r="C7">
-        <v>0.3207844722416269</v>
+        <v>0.6289360380552012</v>
       </c>
       <c r="D7">
-        <v>0.008094219917428092</v>
+        <v>0.007900772663731459</v>
       </c>
       <c r="E7">
-        <v>0.05055854344986926</v>
+        <v>0.01671470698214494</v>
       </c>
       <c r="F7">
-        <v>4.11286482053535</v>
+        <v>2.74426138762982</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.432024875711065</v>
+        <v>1.571094455699935</v>
       </c>
       <c r="J7">
-        <v>0.1256297847564962</v>
+        <v>0.05491629399539022</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4571688821454956</v>
+        <v>0.2796927823882527</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.795203256877016</v>
+        <v>3.210695435568482</v>
       </c>
       <c r="C8">
-        <v>0.3553358682492274</v>
+        <v>0.768898076954855</v>
       </c>
       <c r="D8">
-        <v>0.008825692755099368</v>
+        <v>0.009938979968033834</v>
       </c>
       <c r="E8">
-        <v>0.05045652236702669</v>
+        <v>0.01675694356586344</v>
       </c>
       <c r="F8">
-        <v>4.147204202874363</v>
+        <v>3.001567748534995</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.443111137013148</v>
+        <v>1.680370074506726</v>
       </c>
       <c r="J8">
-        <v>0.1249032902056229</v>
+        <v>0.05389653582695253</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.463579292991426</v>
+        <v>0.3215583172113554</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.030053990057752</v>
+        <v>4.307201112993766</v>
       </c>
       <c r="C9">
-        <v>0.4249002359604219</v>
+        <v>1.05570902772331</v>
       </c>
       <c r="D9">
-        <v>0.01024010721108581</v>
+        <v>0.01445945384137914</v>
       </c>
       <c r="E9">
-        <v>0.05028941902577372</v>
+        <v>0.01690135002401011</v>
       </c>
       <c r="F9">
-        <v>4.23083882366646</v>
+        <v>3.562852416100952</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.473794460819718</v>
+        <v>1.925757052344437</v>
       </c>
       <c r="J9">
-        <v>0.1236782477280762</v>
+        <v>0.05226527081609689</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4780571534617906</v>
+        <v>0.408569011102017</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.211029415870655</v>
+        <v>5.152527843426412</v>
       </c>
       <c r="C10">
-        <v>0.4771574687175644</v>
+        <v>1.277612592055391</v>
       </c>
       <c r="D10">
-        <v>0.01127045713545627</v>
+        <v>0.01825954801347152</v>
       </c>
       <c r="E10">
-        <v>0.0501866576612664</v>
+        <v>0.01705549766277492</v>
       </c>
       <c r="F10">
-        <v>4.302375552408307</v>
+        <v>4.021000772758242</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.501878032762718</v>
+        <v>2.130838862162676</v>
       </c>
       <c r="J10">
-        <v>0.1228998502986514</v>
+        <v>0.05131760960144049</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4898613003190206</v>
+        <v>0.4765505226303617</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.295208059933657</v>
+        <v>5.548853332083866</v>
       </c>
       <c r="C11">
-        <v>0.5011903157224538</v>
+        <v>1.381955881347835</v>
       </c>
       <c r="D11">
-        <v>0.01173800890620313</v>
+        <v>0.02013528607092496</v>
       </c>
       <c r="E11">
-        <v>0.05014423755449759</v>
+        <v>0.01713899894905613</v>
       </c>
       <c r="F11">
-        <v>4.337145307364437</v>
+        <v>4.242298090324965</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.515876609817653</v>
+        <v>2.231048996328582</v>
       </c>
       <c r="J11">
-        <v>0.1225721423331834</v>
+        <v>0.05094776243486798</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4954859969538035</v>
+        <v>0.5086353882476118</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.327351673147632</v>
+        <v>5.700932528457713</v>
       </c>
       <c r="C12">
-        <v>0.5103291676619506</v>
+        <v>1.422051514890086</v>
       </c>
       <c r="D12">
-        <v>0.01191495070795412</v>
+        <v>0.02087104199240031</v>
       </c>
       <c r="E12">
-        <v>0.05012879513059898</v>
+        <v>0.01717284702143496</v>
       </c>
       <c r="F12">
-        <v>4.350634647706045</v>
+        <v>4.328237588945854</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.52135491836404</v>
+        <v>2.270140450360898</v>
       </c>
       <c r="J12">
-        <v>0.1224518426537085</v>
+        <v>0.0508171842154379</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4976526515261099</v>
+        <v>0.5209789837314673</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.320417085226893</v>
+        <v>5.668085284425217</v>
       </c>
       <c r="C13">
-        <v>0.5083592460607633</v>
+        <v>1.413388610306299</v>
       </c>
       <c r="D13">
-        <v>0.01187684710344428</v>
+        <v>0.02071137530716172</v>
       </c>
       <c r="E13">
-        <v>0.05013209332226654</v>
+        <v>0.017165452671415</v>
       </c>
       <c r="F13">
-        <v>4.34771508063082</v>
+        <v>4.309628829684385</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.520167155542396</v>
+        <v>2.261667908035946</v>
       </c>
       <c r="J13">
-        <v>0.1224775824788153</v>
+        <v>0.05084487352409717</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.497184390497253</v>
+        <v>0.5183114798729065</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.297847179447785</v>
+        <v>5.561323000050891</v>
       </c>
       <c r="C14">
-        <v>0.5019414066056243</v>
+        <v>1.385242294799923</v>
       </c>
       <c r="D14">
-        <v>0.01175256788974721</v>
+        <v>0.02019527975439672</v>
       </c>
       <c r="E14">
-        <v>0.05014295465367463</v>
+        <v>0.01714173704849037</v>
       </c>
       <c r="F14">
-        <v>4.338248599914493</v>
+        <v>4.249323723908475</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.51632375079862</v>
+        <v>2.234241211017036</v>
       </c>
       <c r="J14">
-        <v>0.1225621691152696</v>
+        <v>0.05093682563440005</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4956635130472762</v>
+        <v>0.5096468514398822</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.284057251091383</v>
+        <v>5.496198215025345</v>
       </c>
       <c r="C15">
-        <v>0.4980152799806774</v>
+        <v>1.368080847282386</v>
       </c>
       <c r="D15">
-        <v>0.01167643066466439</v>
+        <v>0.01988261135922187</v>
       </c>
       <c r="E15">
-        <v>0.05014968839634631</v>
+        <v>0.01712751070503027</v>
       </c>
       <c r="F15">
-        <v>4.332492218494906</v>
+        <v>4.212672886740108</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.513992694172828</v>
+        <v>2.217595363596971</v>
       </c>
       <c r="J15">
-        <v>0.1226144752979721</v>
+        <v>0.05099440428245039</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.494736713079007</v>
+        <v>0.5043656169770685</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.205565466644998</v>
+        <v>5.126889205459349</v>
       </c>
       <c r="C16">
-        <v>0.4755921670246153</v>
+        <v>1.27086964843437</v>
       </c>
       <c r="D16">
-        <v>0.01123988304239987</v>
+        <v>0.01814027568196508</v>
       </c>
       <c r="E16">
-        <v>0.05018951688893714</v>
+        <v>0.017050334585552</v>
       </c>
       <c r="F16">
-        <v>4.300148299900457</v>
+        <v>4.006821265697226</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.500987931072174</v>
+        <v>2.124441368526448</v>
       </c>
       <c r="J16">
-        <v>0.1229217979255939</v>
+        <v>0.05134306742236205</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4894988467752341</v>
+        <v>0.4744792571840435</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.157888101739218</v>
+        <v>4.903551264534144</v>
       </c>
       <c r="C17">
-        <v>0.4619035507003559</v>
+        <v>1.212166977104289</v>
       </c>
       <c r="D17">
-        <v>0.01097181851917739</v>
+        <v>0.01711192440411224</v>
       </c>
       <c r="E17">
-        <v>0.05021505777606672</v>
+        <v>0.0170066151963742</v>
       </c>
       <c r="F17">
-        <v>4.280878597272249</v>
+        <v>3.884028793598162</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.493324255758495</v>
+        <v>2.069165768956722</v>
       </c>
       <c r="J17">
-        <v>0.1231170902945955</v>
+        <v>0.05157309470494376</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4863509098898788</v>
+        <v>0.4564599909191429</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.13063961897916</v>
+        <v>4.776181504176066</v>
       </c>
       <c r="C18">
-        <v>0.4540547265776809</v>
+        <v>1.17871619613129</v>
       </c>
       <c r="D18">
-        <v>0.01081752232342126</v>
+        <v>0.01653398991479094</v>
       </c>
       <c r="E18">
-        <v>0.05023015550990084</v>
+        <v>0.01698270699897686</v>
       </c>
       <c r="F18">
-        <v>4.270004670293503</v>
+        <v>3.814595061331886</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.489031359859169</v>
+        <v>2.038013693832141</v>
       </c>
       <c r="J18">
-        <v>0.1232319010554921</v>
+        <v>0.051711120350733</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4845642921305569</v>
+        <v>0.4462031189098781</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.121443663654816</v>
+        <v>4.733234621504891</v>
       </c>
       <c r="C19">
-        <v>0.4514014393768662</v>
+        <v>1.167441517463374</v>
       </c>
       <c r="D19">
-        <v>0.01076525922414362</v>
+        <v>0.01634051766099276</v>
       </c>
       <c r="E19">
-        <v>0.05023533732753666</v>
+        <v>0.01697481636427522</v>
       </c>
       <c r="F19">
-        <v>4.266358850947427</v>
+        <v>3.791282867287805</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.487597574498295</v>
+        <v>2.027572020052418</v>
       </c>
       <c r="J19">
-        <v>0.1232712005487731</v>
+        <v>0.05175881702492724</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4839634934601236</v>
+        <v>0.4427479924712543</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.162945397016983</v>
+        <v>4.92721126318321</v>
       </c>
       <c r="C20">
-        <v>0.4633581864458165</v>
+        <v>1.218382896993432</v>
       </c>
       <c r="D20">
-        <v>0.01100036568516316</v>
+        <v>0.01721996321000674</v>
       </c>
       <c r="E20">
-        <v>0.05021229675947581</v>
+        <v>0.01701113904437301</v>
       </c>
       <c r="F20">
-        <v>4.282908189936137</v>
+        <v>3.896974821301171</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.494128149624203</v>
+        <v>2.074982597529981</v>
       </c>
       <c r="J20">
-        <v>0.1230960440187729</v>
+        <v>0.05154801136458076</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4866835297256671</v>
+        <v>0.4583668807706545</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.304469256257562</v>
+        <v>5.592624752397796</v>
       </c>
       <c r="C21">
-        <v>0.503825441525521</v>
+        <v>1.39349290056947</v>
       </c>
       <c r="D21">
-        <v>0.01178907423478748</v>
+        <v>0.02034614077441432</v>
       </c>
       <c r="E21">
-        <v>0.05013974756726314</v>
+        <v>0.0171486397215237</v>
       </c>
       <c r="F21">
-        <v>4.341020354293022</v>
+        <v>4.266976249748296</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.5174478270158</v>
+        <v>2.242264747392952</v>
       </c>
       <c r="J21">
-        <v>0.1225372209289688</v>
+        <v>0.05090955413432852</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4961092350969807</v>
+        <v>0.5121863696247431</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.39851984345006</v>
+        <v>6.039340562770349</v>
       </c>
       <c r="C22">
-        <v>0.5304957142211038</v>
+        <v>1.511390906176928</v>
       </c>
       <c r="D22">
-        <v>0.01230392696546545</v>
+        <v>0.02254019674922958</v>
       </c>
       <c r="E22">
-        <v>0.05009595260102973</v>
+        <v>0.01725167643643821</v>
       </c>
       <c r="F22">
-        <v>4.380882655891128</v>
+        <v>4.521426429444205</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.53372300812228</v>
+        <v>2.35834778508098</v>
       </c>
       <c r="J22">
-        <v>0.1221941257473809</v>
+        <v>0.05054789390298708</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.502483442498729</v>
+        <v>0.5485053901208516</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.348180611550276</v>
+        <v>5.799724432285927</v>
       </c>
       <c r="C23">
-        <v>0.5162407074033126</v>
+        <v>1.448115416979533</v>
       </c>
       <c r="D23">
-        <v>0.01202917764272726</v>
+        <v>0.021353759337714</v>
       </c>
       <c r="E23">
-        <v>0.05011899586906865</v>
+        <v>0.01719536214923822</v>
       </c>
       <c r="F23">
-        <v>4.359434298955449</v>
+        <v>4.384359557425341</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.524941503606939</v>
+        <v>2.295718717327318</v>
       </c>
       <c r="J23">
-        <v>0.1223752168637624</v>
+        <v>0.05073558440034809</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4990618139454597</v>
+        <v>0.5290064989083874</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.160658489684067</v>
+        <v>4.916511391415384</v>
       </c>
       <c r="C24">
-        <v>0.4627004804382864</v>
+        <v>1.215571757829593</v>
       </c>
       <c r="D24">
-        <v>0.01098746008372586</v>
+        <v>0.01717107782215166</v>
       </c>
       <c r="E24">
-        <v>0.05021354372565962</v>
+        <v>0.01700909001398215</v>
       </c>
       <c r="F24">
-        <v>4.281989974366581</v>
+        <v>3.891118326093903</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.493764357182172</v>
+        <v>2.072350868603849</v>
       </c>
       <c r="J24">
-        <v>0.1231055511456489</v>
+        <v>0.05155933358884823</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4865330801217311</v>
+        <v>0.4575044581411447</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.965045411251083</v>
+        <v>4.004546042009963</v>
       </c>
       <c r="C25">
-        <v>0.4058829077467578</v>
+        <v>0.976447996286339</v>
       </c>
       <c r="D25">
-        <v>0.009859264737006157</v>
+        <v>0.01316535947215414</v>
       </c>
       <c r="E25">
-        <v>0.0503311052509659</v>
+        <v>0.0168547119858693</v>
       </c>
       <c r="F25">
-        <v>4.206452866420989</v>
+        <v>3.403865783126406</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.464527273448098</v>
+        <v>1.855484700428207</v>
       </c>
       <c r="J25">
-        <v>0.1239882895614688</v>
+        <v>0.05266460486897451</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4739358810965228</v>
+        <v>0.3844028718702219</v>
       </c>
       <c r="M25">
         <v>0</v>
